--- a/results/comparaison/GM/azimuth/mean_raw_data.xlsx
+++ b/results/comparaison/GM/azimuth/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,267 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74.12520427586361</v>
+        <v>158.449874800711</v>
       </c>
       <c r="C2">
-        <v>100.2620602750725</v>
+        <v>116.0735310297686</v>
       </c>
       <c r="D2">
-        <v>140.5311005926252</v>
+        <v>101.3802184074885</v>
       </c>
       <c r="E2">
-        <v>173.9485400025635</v>
+        <v>86.89931636299725</v>
       </c>
       <c r="F2">
-        <v>97.18834647009631</v>
+        <v>107.1612875073404</v>
+      </c>
+      <c r="G2">
+        <v>2.78159996063048</v>
+      </c>
+      <c r="H2">
+        <v>99.48469284247824</v>
+      </c>
+      <c r="I2">
+        <v>58.547398136747</v>
+      </c>
+      <c r="J2">
+        <v>58.53362685128894</v>
+      </c>
+      <c r="K2">
+        <v>170.8334956874186</v>
+      </c>
+      <c r="L2">
+        <v>137.2722627442959</v>
+      </c>
+      <c r="M2">
+        <v>11.16504321508964</v>
+      </c>
+      <c r="N2">
+        <v>16.62214318533762</v>
+      </c>
+      <c r="O2">
+        <v>141.5037908567993</v>
+      </c>
+      <c r="P2">
+        <v>96.12692433765636</v>
+      </c>
+      <c r="Q2">
+        <v>179.6196834914165</v>
+      </c>
+      <c r="R2">
+        <v>119.6710497330489</v>
+      </c>
+      <c r="S2">
+        <v>135.6280986620325</v>
+      </c>
+      <c r="T2">
+        <v>25.99997978985986</v>
+      </c>
+      <c r="U2">
+        <v>119.4128143029504</v>
+      </c>
+      <c r="V2">
+        <v>28.80713826769781</v>
+      </c>
+      <c r="W2">
+        <v>179.7417722749718</v>
+      </c>
+      <c r="X2">
+        <v>173.6727091884127</v>
+      </c>
+      <c r="Y2">
+        <v>2.313399582281095</v>
+      </c>
+      <c r="Z2">
+        <v>173.962703964711</v>
+      </c>
+      <c r="AA2">
+        <v>145.5971182404866</v>
+      </c>
+      <c r="AB2">
+        <v>104.0339310998606</v>
+      </c>
+      <c r="AC2">
+        <v>121.1617667168554</v>
+      </c>
+      <c r="AD2">
+        <v>146.0606776957243</v>
+      </c>
+      <c r="AE2">
+        <v>116.4964880048914</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>153.978879175741</v>
-      </c>
       <c r="C3">
-        <v>2.051195703761381</v>
+        <v>9.736733075780352</v>
       </c>
       <c r="D3">
-        <v>15.27255348351071</v>
+        <v>141.8096531416458</v>
       </c>
       <c r="E3">
-        <v>11.10787774056115</v>
+        <v>18.88139057297548</v>
       </c>
       <c r="F3">
-        <v>105.9239676361861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>14.34656399946099</v>
-      </c>
-      <c r="C4">
-        <v>161.9540848657019</v>
-      </c>
-      <c r="D4">
-        <v>3.354684496309019</v>
-      </c>
-      <c r="E4">
-        <v>171.6339441432109</v>
-      </c>
-      <c r="F4">
-        <v>112.3611729978687</v>
+        <v>52.68258334176338</v>
+      </c>
+      <c r="G3">
+        <v>39.19869712659307</v>
+      </c>
+      <c r="H3">
+        <v>125.9288301213042</v>
+      </c>
+      <c r="I3">
+        <v>73.24184234651356</v>
+      </c>
+      <c r="J3">
+        <v>1.686581655665964</v>
+      </c>
+      <c r="K3">
+        <v>179.0856303709873</v>
+      </c>
+      <c r="L3">
+        <v>147.087835277979</v>
+      </c>
+      <c r="M3">
+        <v>147.302299255833</v>
+      </c>
+      <c r="N3">
+        <v>140.3591756049083</v>
+      </c>
+      <c r="O3">
+        <v>110.7651621467489</v>
+      </c>
+      <c r="P3">
+        <v>120.2633914330336</v>
+      </c>
+      <c r="Q3">
+        <v>174.7138877830645</v>
+      </c>
+      <c r="R3">
+        <v>135.3040311153034</v>
+      </c>
+      <c r="S3">
+        <v>142.9612278943246</v>
+      </c>
+      <c r="T3">
+        <v>47.93455579939111</v>
+      </c>
+      <c r="U3">
+        <v>141.758733352824</v>
+      </c>
+      <c r="V3">
+        <v>12.17575627090132</v>
+      </c>
+      <c r="W3">
+        <v>15.0029601805963</v>
+      </c>
+      <c r="X3">
+        <v>27.7935314699561</v>
+      </c>
+      <c r="Y3">
+        <v>24.31339201676245</v>
+      </c>
+      <c r="Z3">
+        <v>17.59066050749554</v>
+      </c>
+      <c r="AA3">
+        <v>137.2196740884228</v>
+      </c>
+      <c r="AB3">
+        <v>76.86806947025627</v>
+      </c>
+      <c r="AC3">
+        <v>52.38868116877477</v>
+      </c>
+      <c r="AD3">
+        <v>3.228364526538824</v>
+      </c>
+      <c r="AE3">
+        <v>111.5211494247842</v>
       </c>
     </row>
   </sheetData>
